--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,68 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JSM2T1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AA037-67D2-4976-B97C-1FDA5CBE12A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>rdr2</t>
-  </si>
-  <si>
-    <t>30/11/2018 16:25:21</t>
-  </si>
-  <si>
-    <t>first task</t>
-  </si>
-  <si>
-    <t>30/11/2018 18:21:25</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>30/11/2018 19:12:55</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>todo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -431,63 +374,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>title</v>
+      </c>
+      <c r="B1" t="str">
+        <v>body</v>
+      </c>
+      <c r="C1" t="str">
+        <v>time</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>play</v>
+      </c>
+      <c r="B2" t="str">
+        <v>rdr2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>30/11/2018 16:25:21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>todo</v>
+      </c>
+      <c r="B3" t="str">
+        <v>first task</v>
+      </c>
+      <c r="C3" t="str">
+        <v>30/11/2018 18:21:25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>todododo</v>
+      </c>
+      <c r="B4" t="str">
+        <v>do</v>
+      </c>
+      <c r="C4" t="str">
+        <v>30/11/2018 19:12:55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 B4:C4 B2:C2 B3:C3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,19 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JSM2T1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7ED9C2-B9F0-4F5A-8083-4A65089479AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>do1</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t>3/12/2018 19:35:59</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>rdr2</t>
+  </si>
+  <si>
+    <t>3/12/2018 20:35:59</t>
+  </si>
+  <si>
+    <t>play2</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>3/12/2018 21:45:21</t>
+  </si>
+  <si>
+    <t>ura</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>play3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,14 +103,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,59 +444,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>title</v>
-      </c>
-      <c r="B1" t="str">
-        <v>body</v>
-      </c>
-      <c r="C1" t="str">
-        <v>time</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>play</v>
-      </c>
-      <c r="B2" t="str">
-        <v>rdr2</v>
-      </c>
-      <c r="C2" t="str">
-        <v>30/11/2018 16:25:21</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>todo</v>
-      </c>
-      <c r="B3" t="str">
-        <v>first task</v>
-      </c>
-      <c r="C3" t="str">
-        <v>30/11/2018 18:21:25</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>todododo</v>
-      </c>
-      <c r="B4" t="str">
-        <v>do</v>
-      </c>
-      <c r="C4" t="str">
-        <v>30/11/2018 19:12:55</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43171.721597222226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43171.804930555554</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C4 A5:B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,80 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JSM2T1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7ED9C2-B9F0-4F5A-8083-4A65089479AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>do1</t>
-  </si>
-  <si>
-    <t>homework</t>
-  </si>
-  <si>
-    <t>3/12/2018 19:35:59</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>rdr2</t>
-  </si>
-  <si>
-    <t>3/12/2018 20:35:59</t>
-  </si>
-  <si>
-    <t>play2</t>
-  </si>
-  <si>
-    <t>piano</t>
-  </si>
-  <si>
-    <t>3/12/2018 21:45:21</t>
-  </si>
-  <si>
-    <t>ura</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>play3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,23 +42,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -444,88 +374,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43171.721597222226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43171.804930555554</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>title</v>
+      </c>
+      <c r="B1" t="str">
+        <v>body</v>
+      </c>
+      <c r="C1" t="str">
+        <v>time</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>play2</v>
+      </c>
+      <c r="B2" t="str">
+        <v>piano</v>
+      </c>
+      <c r="C2" t="str">
+        <v>3/12/2018 21:45:21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>play</v>
+      </c>
+      <c r="B3" t="str">
+        <v>rdr2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>3/12/2018 20:35:59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>do1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>homework</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3/12/2018 19:35:59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ura</v>
+      </c>
+      <c r="B5" t="str">
+        <v>do</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3/12/2018 17:19:6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>cook</v>
+      </c>
+      <c r="B6" t="str">
+        <v>chicken</v>
+      </c>
+      <c r="C6" t="str">
+        <v>4/12/2018 10:48:58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C4 A5:B5" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>